--- a/samples/7_styles_without_setters/exported_file.xlsx
+++ b/samples/7_styles_without_setters/exported_file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
-    <t>Date: 10-10-2018 - Department: Sales department</t>
+    <t>Date: 16-10-2018 - Department: Sales department</t>
   </si>
   <si>
     <t>Report on managers:</t>

--- a/samples/7_styles_without_setters/exported_file.xlsx
+++ b/samples/7_styles_without_setters/exported_file.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
-    <t>Date: 16-10-2018 - Department: Sales department</t>
+    <t>Date: 17-10-2018 - Department: Sales department</t>
   </si>
   <si>
     <t>Report on managers:</t>
